--- a/bills/gastos.xlsx
+++ b/bills/gastos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\checo\Documents\baja_SAE_Instrumentation\bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8070A7-81D7-441F-A20A-0AE3D8861377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80946DEA-9E70-4D75-A441-EB34154D8511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{9A142025-CBE2-414F-8F00-D3671C5B1088}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{9A142025-CBE2-414F-8F00-D3671C5B1088}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Costo</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t>UES2006161L5FCN6657</t>
+  </si>
+  <si>
+    <t>Amazon.com.mx - Pedido 701-0299536-1678629</t>
+  </si>
+  <si>
+    <t>Amazon.com.mx - Pedido 701-2905587-1581060</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Antena GPS</t>
+  </si>
+  <si>
+    <t>Antena RF</t>
+  </si>
+  <si>
+    <t>Microcontroladores varios</t>
   </si>
 </sst>
 </file>
@@ -150,7 +168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -158,7 +176,6 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -482,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037C28F-83AB-48E8-886D-5C993AF3FD8F}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,147 +510,193 @@
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>45145</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9">
+      <c r="F2" s="8">
         <v>1014</v>
       </c>
-      <c r="F2" s="13">
+      <c r="G2" s="12">
         <v>1014</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>45237</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>94.98</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="6">
         <v>94.98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7">
+        <v>45206</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4">
+        <v>306.22000000000003</v>
+      </c>
+      <c r="G4" s="4">
+        <v>306.22000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7">
+        <v>45206</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4">
+        <v>132.99</v>
+      </c>
+      <c r="G5" s="4">
+        <v>132.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2">
-        <f>SUM(E2:E10)</f>
-        <v>1108.98</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="F12" s="2">
         <f>SUM(F2:F10)</f>
-        <v>1108.98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="8"/>
+        <v>1548.19</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(G2:G10)</f>
+        <v>1548.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
